--- a/biology/Zoologie/Exetastes/Exetastes.xlsx
+++ b/biology/Zoologie/Exetastes/Exetastes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exetastes est un genre de guêpes parasitoïdes de la famille des Ichneumonidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Exetastes est décrit en 1829 par le zoologiste allemand Johann Ludwig Christian Carl Gravenhorst (1777–1857)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Exetastes est décrit en 1829 par le zoologiste allemand Johann Ludwig Christian Carl Gravenhorst (1777–1857).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Exetastes est un genre cosmopolite[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Exetastes est un genre cosmopolite.
 </t>
         </is>
       </c>
@@ -573,22 +589,59 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Exetastes adpressorius
-Exetastes albiger Kriechbaumer, 1886[2]
-Exetastes albimarginalis Watanabe, 2020[2]
-Exetastes atrator (Förster, 1771)[2]
-Exetastes bimaculatus (Uchida, 1928)[2]
-Exetastes compressus Watanabe &amp; Sheng, 2018[2]
-Exetastes crousae Kittel, 2016[2]
-Exetastes fornicator (Fabricius, 1781)[2]
-Exetastes fukuchiyamanus Uchida, 1928[2]
-Exetastes ichneumoniformis Gravenhorst, 1829[2]
-Exetastes ishikawensis Uchida, 1928[2]
-Espèces fossiles
-Selon Paleobiology Database en 2022, les espèces fossiles référencées sont au nombre de quatre[3] :
+Exetastes albiger Kriechbaumer, 1886
+Exetastes albimarginalis Watanabe, 2020
+Exetastes atrator (Förster, 1771)
+Exetastes bimaculatus (Uchida, 1928)
+Exetastes compressus Watanabe &amp; Sheng, 2018
+Exetastes crousae Kittel, 2016
+Exetastes fornicator (Fabricius, 1781)
+Exetastes fukuchiyamanus Uchida, 1928
+Exetastes ichneumoniformis Gravenhorst, 1829
+Exetastes ishikawensis Uchida, 1928
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Exetastes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exetastes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2022, les espèces fossiles référencées sont au nombre de quatre :
 †Exetastes areolus Zhang, 1989
 †Exetastes inveteratus Brues, 1910
 †Exetastes manchuricus Naora, 1933
